--- a/ESP_FATT.xlsx
+++ b/ESP_FATT.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -482,6 +482,7 @@
     <col customWidth="true" min="8" max="8" width="13.8359375"/>
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
+    <col customWidth="true" min="11" max="11" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -535,6 +536,11 @@
           <t>dd_prodest</t>
         </is>
       </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>tm_vettor</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4">
@@ -583,6 +589,11 @@
           <t/>
         </is>
       </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4">
@@ -631,6 +642,11 @@
           <t/>
         </is>
       </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4">
@@ -679,6 +695,11 @@
           <t/>
         </is>
       </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4">
@@ -727,6 +748,11 @@
           <t/>
         </is>
       </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4">
@@ -775,6 +801,11 @@
           <t>SP</t>
         </is>
       </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4">
@@ -823,6 +854,11 @@
           <t/>
         </is>
       </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4">
@@ -871,6 +907,11 @@
           <t/>
         </is>
       </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4">
@@ -919,6 +960,11 @@
           <t/>
         </is>
       </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4">
@@ -967,6 +1013,11 @@
           <t/>
         </is>
       </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4">
@@ -1015,6 +1066,11 @@
           <t/>
         </is>
       </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4">
@@ -1063,6 +1119,11 @@
           <t/>
         </is>
       </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4">
@@ -1111,6 +1172,11 @@
           <t/>
         </is>
       </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4">
@@ -1159,6 +1225,11 @@
           <t/>
         </is>
       </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4">
@@ -1207,6 +1278,11 @@
           <t/>
         </is>
       </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4">
@@ -1255,6 +1331,11 @@
           <t/>
         </is>
       </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4">
@@ -1303,6 +1384,11 @@
           <t/>
         </is>
       </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4">
@@ -1351,6 +1437,11 @@
           <t/>
         </is>
       </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4">
@@ -1399,6 +1490,11 @@
           <t/>
         </is>
       </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4">
@@ -1447,6 +1543,11 @@
           <t/>
         </is>
       </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4">
@@ -1495,6 +1596,11 @@
           <t/>
         </is>
       </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4">
@@ -1543,6 +1649,11 @@
           <t/>
         </is>
       </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4">
@@ -1591,6 +1702,11 @@
           <t/>
         </is>
       </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4">
@@ -1639,6 +1755,11 @@
           <t>SP</t>
         </is>
       </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4">
@@ -1687,6 +1808,11 @@
           <t/>
         </is>
       </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4">
@@ -1735,6 +1861,11 @@
           <t/>
         </is>
       </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4">
@@ -1783,6 +1914,11 @@
           <t/>
         </is>
       </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4">
@@ -1831,6 +1967,11 @@
           <t/>
         </is>
       </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4">
@@ -1879,6 +2020,11 @@
           <t/>
         </is>
       </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4">
@@ -1927,6 +2073,11 @@
           <t/>
         </is>
       </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4">
@@ -1975,6 +2126,11 @@
           <t/>
         </is>
       </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4">
@@ -2023,6 +2179,11 @@
           <t/>
         </is>
       </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4">
@@ -2071,6 +2232,11 @@
           <t/>
         </is>
       </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4">
@@ -2119,6 +2285,11 @@
           <t/>
         </is>
       </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4">
@@ -2167,6 +2338,11 @@
           <t/>
         </is>
       </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4">
@@ -2215,6 +2391,11 @@
           <t/>
         </is>
       </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4">
@@ -2263,6 +2444,11 @@
           <t/>
         </is>
       </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4">
@@ -2311,6 +2497,11 @@
           <t/>
         </is>
       </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4">
@@ -2359,6 +2550,11 @@
           <t>MS</t>
         </is>
       </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4">
@@ -2407,6 +2603,11 @@
           <t/>
         </is>
       </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4">
@@ -2455,6 +2656,11 @@
           <t/>
         </is>
       </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4">
@@ -2503,6 +2709,11 @@
           <t/>
         </is>
       </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4">
@@ -2551,6 +2762,11 @@
           <t>MS</t>
         </is>
       </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4">
@@ -2599,6 +2815,11 @@
           <t/>
         </is>
       </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4">
@@ -2647,6 +2868,11 @@
           <t/>
         </is>
       </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4">
@@ -2695,6 +2921,11 @@
           <t/>
         </is>
       </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4">
@@ -2743,6 +2974,11 @@
           <t/>
         </is>
       </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4">
@@ -2791,6 +3027,11 @@
           <t/>
         </is>
       </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4">
@@ -2839,6 +3080,11 @@
           <t/>
         </is>
       </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4">
@@ -2887,6 +3133,11 @@
           <t/>
         </is>
       </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4">
@@ -2935,6 +3186,11 @@
           <t/>
         </is>
       </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4">
@@ -2983,6 +3239,11 @@
           <t/>
         </is>
       </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4">
@@ -3031,6 +3292,11 @@
           <t>SP</t>
         </is>
       </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4">
@@ -3079,6 +3345,11 @@
           <t/>
         </is>
       </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4">
@@ -3127,6 +3398,11 @@
           <t/>
         </is>
       </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="4">
@@ -3175,6 +3451,11 @@
           <t/>
         </is>
       </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="4">
@@ -3223,6 +3504,11 @@
           <t/>
         </is>
       </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="58">
       <c r="A58" s="4">
@@ -3271,6 +3557,11 @@
           <t/>
         </is>
       </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="59">
       <c r="A59" s="4">
@@ -3319,6 +3610,11 @@
           <t/>
         </is>
       </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="4">
@@ -3367,6 +3663,11 @@
           <t/>
         </is>
       </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="61">
       <c r="A61" s="4">
@@ -3415,6 +3716,11 @@
           <t/>
         </is>
       </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="62">
       <c r="A62" s="4">
@@ -3463,6 +3769,11 @@
           <t/>
         </is>
       </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="63">
       <c r="A63" s="4">
@@ -3511,6 +3822,11 @@
           <t/>
         </is>
       </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="64">
       <c r="A64" s="4">
@@ -3559,6 +3875,11 @@
           <t/>
         </is>
       </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="65">
       <c r="A65" s="4">
@@ -3607,6 +3928,11 @@
           <t/>
         </is>
       </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="66">
       <c r="A66" s="4">
@@ -3655,6 +3981,11 @@
           <t/>
         </is>
       </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="4">
@@ -3703,6 +4034,11 @@
           <t/>
         </is>
       </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="68">
       <c r="A68" s="4">
@@ -3751,6 +4087,11 @@
           <t/>
         </is>
       </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="69">
       <c r="A69" s="4">
@@ -3799,6 +4140,11 @@
           <t/>
         </is>
       </c>
+      <c r="K69" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="70">
       <c r="A70" s="4">
@@ -3847,6 +4193,11 @@
           <t/>
         </is>
       </c>
+      <c r="K70" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="4">
@@ -3895,6 +4246,11 @@
           <t/>
         </is>
       </c>
+      <c r="K71" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="72">
       <c r="A72" s="4">
@@ -3943,6 +4299,11 @@
           <t/>
         </is>
       </c>
+      <c r="K72" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="73">
       <c r="A73" s="4">
@@ -3991,6 +4352,11 @@
           <t/>
         </is>
       </c>
+      <c r="K73" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="74">
       <c r="A74" s="4">
@@ -4039,6 +4405,11 @@
           <t/>
         </is>
       </c>
+      <c r="K74" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="75">
       <c r="A75" s="4">
@@ -4087,6 +4458,11 @@
           <t/>
         </is>
       </c>
+      <c r="K75" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="76">
       <c r="A76" s="4">
@@ -4135,6 +4511,11 @@
           <t/>
         </is>
       </c>
+      <c r="K76" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="77">
       <c r="A77" s="4">
@@ -4183,6 +4564,11 @@
           <t/>
         </is>
       </c>
+      <c r="K77" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="78">
       <c r="A78" s="4">
@@ -4231,6 +4617,11 @@
           <t/>
         </is>
       </c>
+      <c r="K78" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="79">
       <c r="A79" s="4">
@@ -4279,6 +4670,11 @@
           <t/>
         </is>
       </c>
+      <c r="K79" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="80">
       <c r="A80" s="4">
@@ -4327,6 +4723,11 @@
           <t/>
         </is>
       </c>
+      <c r="K80" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="81">
       <c r="A81" s="4">
@@ -4375,6 +4776,11 @@
           <t>MS</t>
         </is>
       </c>
+      <c r="K81" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="4">
@@ -4423,6 +4829,11 @@
           <t/>
         </is>
       </c>
+      <c r="K82" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="83">
       <c r="A83" s="4">
@@ -4471,6 +4882,11 @@
           <t/>
         </is>
       </c>
+      <c r="K83" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="84">
       <c r="A84" s="4">
@@ -4519,6 +4935,11 @@
           <t/>
         </is>
       </c>
+      <c r="K84" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="85">
       <c r="A85" s="4">
@@ -4567,6 +4988,11 @@
           <t/>
         </is>
       </c>
+      <c r="K85" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="86">
       <c r="A86" s="4">
@@ -4615,6 +5041,11 @@
           <t/>
         </is>
       </c>
+      <c r="K86" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="87">
       <c r="A87" s="4">
@@ -4663,6 +5094,11 @@
           <t/>
         </is>
       </c>
+      <c r="K87" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="88">
       <c r="A88" s="4">
@@ -4711,6 +5147,11 @@
           <t/>
         </is>
       </c>
+      <c r="K88" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="89">
       <c r="A89" s="4">
@@ -4759,6 +5200,11 @@
           <t/>
         </is>
       </c>
+      <c r="K89" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="4">
@@ -4807,6 +5253,11 @@
           <t>MS</t>
         </is>
       </c>
+      <c r="K90" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="91">
       <c r="A91" s="4">
@@ -4855,6 +5306,11 @@
           <t/>
         </is>
       </c>
+      <c r="K91" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="92">
       <c r="A92" s="4">
@@ -4903,6 +5359,11 @@
           <t/>
         </is>
       </c>
+      <c r="K92" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="4">
@@ -4951,6 +5412,11 @@
           <t/>
         </is>
       </c>
+      <c r="K93" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="94">
       <c r="A94" s="4">
@@ -4999,6 +5465,11 @@
           <t/>
         </is>
       </c>
+      <c r="K94" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="95">
       <c r="A95" s="4">
@@ -5047,6 +5518,11 @@
           <t/>
         </is>
       </c>
+      <c r="K95" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="96">
       <c r="A96" s="4">
@@ -5095,6 +5571,11 @@
           <t/>
         </is>
       </c>
+      <c r="K96" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="97">
       <c r="A97" s="4">
@@ -5143,6 +5624,11 @@
           <t/>
         </is>
       </c>
+      <c r="K97" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="98">
       <c r="A98" s="4">
@@ -5191,6 +5677,11 @@
           <t/>
         </is>
       </c>
+      <c r="K98" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="99">
       <c r="A99" s="4">
@@ -5239,6 +5730,11 @@
           <t/>
         </is>
       </c>
+      <c r="K99" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="4">
@@ -5287,6 +5783,11 @@
           <t/>
         </is>
       </c>
+      <c r="K100" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="101">
       <c r="A101" s="4">
@@ -5333,6 +5834,11 @@
       <c r="J101" s="5" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K101" s="5" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/ESP_FATT.xlsx
+++ b/ESP_FATT.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -30,6 +33,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
@@ -67,6 +75,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,6 +158,20 @@
         <color rgb="FFE7E6E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -168,6 +196,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -464,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -483,6 +515,7 @@
     <col customWidth="true" min="9" max="9" width="13.8359375"/>
     <col customWidth="true" min="10" max="10" width="13.8359375"/>
     <col customWidth="true" min="11" max="11" width="13.8359375"/>
+    <col customWidth="true" min="12" max="12" width="13.8359375"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
@@ -541,10 +574,15 @@
           <t>tm_vettor</t>
         </is>
       </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>tm_datadoc</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="4">
-        <v>3906</v>
+        <v>3653</v>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
@@ -558,17 +596,17 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>54033</t>
+          <t>00125</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>CARRARA</t>
+          <t>ROMA</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="G2" s="4">
@@ -593,11 +631,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L2" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="4">
-        <v>3907</v>
+        <v>3654</v>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
@@ -611,12 +652,12 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>54033</t>
+          <t>54013</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>CARRARA</t>
+          <t>FIVIZZANO</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -646,11 +687,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L3" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="4">
-        <v>3908</v>
+        <v>3655</v>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
@@ -664,17 +708,17 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>56011</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>LUCCA</t>
+          <t>CALCI</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="G4" s="4">
@@ -699,11 +743,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L4" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="4">
-        <v>3909</v>
+        <v>3656</v>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
@@ -717,17 +764,17 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>54033</t>
+          <t>55047</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>CARRARA</t>
+          <t>SERAVEZZA</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G5" s="4">
@@ -752,11 +799,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L5" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="4">
-        <v>3910</v>
+        <v>3657</v>
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
@@ -770,12 +820,12 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>19020</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>BOLANO</t>
+          <t>LA SPEZIA</t>
         </is>
       </c>
       <c r="F6" s="5" t="inlineStr">
@@ -784,32 +834,35 @@
         </is>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>19020</t>
+          <t/>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>BOLANO</t>
+          <t/>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t/>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L6" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="4">
-        <v>3911</v>
+        <v>3658</v>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
@@ -823,12 +876,12 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>54028</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
-          <t>VILLAFRANCA IN LUNIGIANA</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
@@ -858,11 +911,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L7" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="4">
-        <v>3912</v>
+        <v>3659</v>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
@@ -876,12 +932,12 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>19038</t>
+          <t>19032</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>SARZANA</t>
+          <t>LERICI</t>
         </is>
       </c>
       <c r="F8" s="5" t="inlineStr">
@@ -911,11 +967,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L8" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="4">
-        <v>3913</v>
+        <v>3668</v>
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
@@ -929,46 +988,49 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>19038</t>
+          <t>54036</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
         <is>
-          <t>SARZANA</t>
+          <t>CARRARA</t>
         </is>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="G9" s="4">
+        <v>105</v>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>19021</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>ARCOLA</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L9" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="4">
-        <v>3915</v>
+        <v>3669</v>
       </c>
       <c r="B10" s="5" t="inlineStr">
         <is>
@@ -982,17 +1044,17 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>19021</t>
+          <t>54013</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>ARCOLA</t>
+          <t>FIVIZZANO</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G10" s="4">
@@ -1017,11 +1079,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L10" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="4">
-        <v>3918</v>
+        <v>3670</v>
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
@@ -1035,17 +1100,17 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>MARINA DI MASSA</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G11" s="4">
@@ -1070,11 +1135,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L11" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="4">
-        <v>3920</v>
+        <v>3671</v>
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
@@ -1088,17 +1156,17 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>56011</t>
+          <t>54033</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>CALCI</t>
+          <t>CARRARA</t>
         </is>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G12" s="4">
@@ -1123,11 +1191,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L12" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="4">
-        <v>3926</v>
+        <v>3672</v>
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
@@ -1141,12 +1212,12 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>19020</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>BOLANO</t>
+          <t>SARZANA</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
@@ -1176,11 +1247,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L13" s="6">
+        <v>45505</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="4">
-        <v>3927</v>
+        <v>3681</v>
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
@@ -1194,17 +1268,17 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>55054</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>MASSAROSA</t>
+          <t>LA SPEZIA</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G14" s="4">
@@ -1229,11 +1303,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L14" s="6">
+        <v>45506</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="4">
-        <v>3948</v>
+        <v>3682</v>
       </c>
       <c r="B15" s="5" t="inlineStr">
         <is>
@@ -1247,17 +1324,17 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>55047</t>
+          <t>04011</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>SERAVEZZA</t>
+          <t>APRILIA</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G15" s="4">
@@ -1282,11 +1359,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L15" s="6">
+        <v>45506</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="4">
-        <v>3949</v>
+        <v>3684</v>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
@@ -1300,12 +1380,12 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>19020</t>
+          <t>19037</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>VEZZANO LIGURE</t>
+          <t>SANTO STEFANO DI MAGRA</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
@@ -1335,11 +1415,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L16" s="6">
+        <v>45506</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="4">
-        <v>3950</v>
+        <v>3685</v>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
@@ -1353,17 +1436,17 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>54027</t>
+          <t>19123</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>PONTREMOLI</t>
+          <t>LA SPEZIA</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G17" s="4">
@@ -1388,11 +1471,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L17" s="6">
+        <v>45506</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="4">
-        <v>3963</v>
+        <v>3707</v>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
@@ -1406,17 +1492,17 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>19125</t>
+          <t>56011</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>CALCI</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="G18" s="4">
@@ -1441,11 +1527,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L18" s="6">
+        <v>45509</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="4">
-        <v>3971</v>
+        <v>3718</v>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
@@ -1459,17 +1548,17 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>19123</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G19" s="4">
@@ -1494,11 +1583,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L19" s="6">
+        <v>45510</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="4">
-        <v>3974</v>
+        <v>3719</v>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
@@ -1512,12 +1604,12 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>54028</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>VILLAFRANCA IN LUNIGIANA</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
@@ -1547,11 +1639,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L20" s="6">
+        <v>45510</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="4">
-        <v>3975</v>
+        <v>3722</v>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
@@ -1565,17 +1660,17 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>19038</t>
+          <t>55047</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>SARZANA</t>
+          <t>SERAVEZZA</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G21" s="4">
@@ -1600,11 +1695,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L21" s="6">
+        <v>45510</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="4">
-        <v>3991</v>
+        <v>3723</v>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
@@ -1653,11 +1751,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L22" s="6">
+        <v>45510</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="4">
-        <v>3993</v>
+        <v>3724</v>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
@@ -1671,17 +1772,17 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>19122</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G23" s="4">
@@ -1706,11 +1807,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L23" s="6">
+        <v>45510</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="4">
-        <v>3994</v>
+        <v>3728</v>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
@@ -1724,46 +1828,49 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>19124</t>
+          <t>54033</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>CARRARA</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G24" s="4">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>19037</t>
+          <t/>
         </is>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>PONZANO MAGRA</t>
+          <t/>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t/>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L24" s="6">
+        <v>45510</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="4">
-        <v>3995</v>
+        <v>3741</v>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
@@ -1777,17 +1884,17 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>54012</t>
+          <t>19033</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>TRESANA</t>
+          <t>CASTELNUOVO MAGRA</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G25" s="4">
@@ -1812,11 +1919,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L25" s="6">
+        <v>45511</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="4">
-        <v>3997</v>
+        <v>3742</v>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
@@ -1830,12 +1940,12 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>54100</t>
+          <t>54013</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>MASSA</t>
+          <t>FIVIZZANO</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
@@ -1865,11 +1975,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L26" s="6">
+        <v>45511</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="4">
-        <v>4037</v>
+        <v>3743</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
@@ -1883,17 +1996,17 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>19037</t>
+          <t>55047</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>SANTO STEFANO DI MAGRA</t>
+          <t>SERAVEZZA</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G27" s="4">
@@ -1918,11 +2031,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L27" s="6">
+        <v>45511</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="4">
-        <v>4043</v>
+        <v>3755</v>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
@@ -1936,17 +2052,17 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>10040</t>
+          <t>19033</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>VOLVERA</t>
+          <t>CASTELNUOVO MAGRA</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G28" s="4">
@@ -1971,11 +2087,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L28" s="6">
+        <v>45512</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="4">
-        <v>4047</v>
+        <v>3761</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
@@ -1989,17 +2108,17 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>56011</t>
+          <t>04011</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>CALCI</t>
+          <t>APRILIA</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G29" s="4">
@@ -2024,11 +2143,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L29" s="6">
+        <v>45512</v>
       </c>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="4">
-        <v>4048</v>
+        <v>3769</v>
       </c>
       <c r="B30" s="5" t="inlineStr">
         <is>
@@ -2042,17 +2164,17 @@
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>19021</t>
+          <t>55047</t>
         </is>
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>ARCOLA</t>
+          <t>SERAVEZZA</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G30" s="4">
@@ -2077,11 +2199,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L30" s="6">
+        <v>45516</v>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="4">
-        <v>4049</v>
+        <v>3782</v>
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
@@ -2095,12 +2220,12 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>54100</t>
+          <t>54033</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>MASSA</t>
+          <t>CARRARA</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -2130,11 +2255,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L31" s="6">
+        <v>45523</v>
       </c>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="4">
-        <v>4050</v>
+        <v>3783</v>
       </c>
       <c r="B32" s="5" t="inlineStr">
         <is>
@@ -2148,7 +2276,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>19126</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -2183,11 +2311,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L32" s="6">
+        <v>45523</v>
       </c>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="4">
-        <v>4055</v>
+        <v>3784</v>
       </c>
       <c r="B33" s="5" t="inlineStr">
         <is>
@@ -2201,12 +2332,12 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>19033</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
         <is>
-          <t>CASTELNUOVO MAGRA</t>
+          <t>LA SPEZIA</t>
         </is>
       </c>
       <c r="F33" s="5" t="inlineStr">
@@ -2236,11 +2367,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L33" s="6">
+        <v>45523</v>
       </c>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="4">
-        <v>4057</v>
+        <v>3785</v>
       </c>
       <c r="B34" s="5" t="inlineStr">
         <is>
@@ -2254,17 +2388,17 @@
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>55047</t>
+          <t>19030</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>SERAVEZZA</t>
+          <t>CASTELNUOVO MAGRA</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G34" s="4">
@@ -2289,11 +2423,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L34" s="6">
+        <v>45523</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
       <c r="A35" s="4">
-        <v>4083</v>
+        <v>3806</v>
       </c>
       <c r="B35" s="5" t="inlineStr">
         <is>
@@ -2307,12 +2444,12 @@
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>54100</t>
+          <t>54013</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>MASSA</t>
+          <t>FIVIZZANO</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
@@ -2342,11 +2479,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L35" s="6">
+        <v>45524</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="4">
-        <v>4087</v>
+        <v>3807</v>
       </c>
       <c r="B36" s="5" t="inlineStr">
         <is>
@@ -2365,7 +2505,7 @@
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>RICCO' DEL GOLFO DI SPEZIA</t>
+          <t>VEZZANO LIGURE</t>
         </is>
       </c>
       <c r="F36" s="5" t="inlineStr">
@@ -2395,11 +2535,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L36" s="6">
+        <v>45524</v>
       </c>
     </row>
     <row outlineLevel="0" r="37">
       <c r="A37" s="4">
-        <v>4089</v>
+        <v>3808</v>
       </c>
       <c r="B37" s="5" t="inlineStr">
         <is>
@@ -2413,17 +2556,17 @@
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>19122</t>
+          <t>55047</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>SERAVEZZA</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G37" s="4">
@@ -2448,11 +2591,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L37" s="6">
+        <v>45524</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="4">
-        <v>4090</v>
+        <v>3815</v>
       </c>
       <c r="B38" s="5" t="inlineStr">
         <is>
@@ -2466,17 +2612,17 @@
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>19100</t>
+          <t>17014</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>CAIRO MONTENOTTE</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="G38" s="4">
@@ -2501,11 +2647,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L38" s="6">
+        <v>45525</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
       <c r="A39" s="4">
-        <v>4091</v>
+        <v>3816</v>
       </c>
       <c r="B39" s="5" t="inlineStr">
         <is>
@@ -2519,12 +2668,12 @@
       </c>
       <c r="D39" s="5" t="inlineStr">
         <is>
-          <t>54033</t>
+          <t>54013</t>
         </is>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>CARRARA</t>
+          <t>FIVIZZANO</t>
         </is>
       </c>
       <c r="F39" s="5" t="inlineStr">
@@ -2533,32 +2682,35 @@
         </is>
       </c>
       <c r="G39" s="4">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>54100</t>
+          <t/>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>MASSA</t>
+          <t/>
         </is>
       </c>
       <c r="J39" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t/>
         </is>
       </c>
       <c r="K39" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L39" s="6">
+        <v>45525</v>
       </c>
     </row>
     <row outlineLevel="0" r="40">
       <c r="A40" s="4">
-        <v>4102</v>
+        <v>3819</v>
       </c>
       <c r="B40" s="5" t="inlineStr">
         <is>
@@ -2607,11 +2759,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L40" s="6">
+        <v>45525</v>
       </c>
     </row>
     <row outlineLevel="0" r="41">
       <c r="A41" s="4">
-        <v>4116</v>
+        <v>3824</v>
       </c>
       <c r="B41" s="5" t="inlineStr">
         <is>
@@ -2625,7 +2780,7 @@
       </c>
       <c r="D41" s="5" t="inlineStr">
         <is>
-          <t>19132</t>
+          <t>19125</t>
         </is>
       </c>
       <c r="E41" s="5" t="inlineStr">
@@ -2660,11 +2815,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L41" s="6">
+        <v>45526</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
       <c r="A42" s="4">
-        <v>4123</v>
+        <v>3828</v>
       </c>
       <c r="B42" s="5" t="inlineStr">
         <is>
@@ -2678,17 +2836,17 @@
       </c>
       <c r="D42" s="5" t="inlineStr">
         <is>
-          <t>55100</t>
+          <t>54038</t>
         </is>
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>LUCCA</t>
+          <t>MONTIGNOSO</t>
         </is>
       </c>
       <c r="F42" s="5" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G42" s="4">
@@ -2713,11 +2871,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L42" s="6">
+        <v>45526</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
       <c r="A43" s="4">
-        <v>4135</v>
+        <v>3834</v>
       </c>
       <c r="B43" s="5" t="inlineStr">
         <is>
@@ -2731,46 +2892,49 @@
       </c>
       <c r="D43" s="5" t="inlineStr">
         <is>
+          <t>20121</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>MILANO</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
           <t>54026</t>
         </is>
       </c>
-      <c r="E43" s="5" t="inlineStr">
+      <c r="I43" s="5" t="inlineStr">
         <is>
           <t>MULAZZO</t>
         </is>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="J43" s="5" t="inlineStr">
         <is>
           <t>MS</t>
         </is>
       </c>
-      <c r="G43" s="4">
-        <v>1</v>
-      </c>
-      <c r="H43" s="5" t="inlineStr">
-        <is>
-          <t>54011</t>
-        </is>
-      </c>
-      <c r="I43" s="5" t="inlineStr">
-        <is>
-          <t>AULLA</t>
-        </is>
-      </c>
-      <c r="J43" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
       <c r="K43" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L43" s="6">
+        <v>45526</v>
       </c>
     </row>
     <row outlineLevel="0" r="44">
       <c r="A44" s="4">
-        <v>4136</v>
+        <v>3836</v>
       </c>
       <c r="B44" s="5" t="inlineStr">
         <is>
@@ -2784,12 +2948,12 @@
       </c>
       <c r="D44" s="5" t="inlineStr">
         <is>
-          <t>19038</t>
+          <t>19124</t>
         </is>
       </c>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>SARZANA</t>
+          <t>LA SPEZIA</t>
         </is>
       </c>
       <c r="F44" s="5" t="inlineStr">
@@ -2819,11 +2983,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L44" s="6">
+        <v>45527</v>
       </c>
     </row>
     <row outlineLevel="0" r="45">
       <c r="A45" s="4">
-        <v>4137</v>
+        <v>3848</v>
       </c>
       <c r="B45" s="5" t="inlineStr">
         <is>
@@ -2837,17 +3004,17 @@
       </c>
       <c r="D45" s="5" t="inlineStr">
         <is>
-          <t>54033</t>
+          <t>56011</t>
         </is>
       </c>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>CARRARA</t>
+          <t>CALCI</t>
         </is>
       </c>
       <c r="F45" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="G45" s="4">
@@ -2872,11 +3039,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L45" s="6">
+        <v>45530</v>
       </c>
     </row>
     <row outlineLevel="0" r="46">
       <c r="A46" s="4">
-        <v>4141</v>
+        <v>3849</v>
       </c>
       <c r="B46" s="5" t="inlineStr">
         <is>
@@ -2925,11 +3095,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L46" s="6">
+        <v>45530</v>
       </c>
     </row>
     <row outlineLevel="0" r="47">
       <c r="A47" s="4">
-        <v>4142</v>
+        <v>3850</v>
       </c>
       <c r="B47" s="5" t="inlineStr">
         <is>
@@ -2943,17 +3116,17 @@
       </c>
       <c r="D47" s="5" t="inlineStr">
         <is>
-          <t>56011</t>
+          <t>19020</t>
         </is>
       </c>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>CALCI</t>
+          <t>RICCO' DEL GOLFO DI SPEZIA</t>
         </is>
       </c>
       <c r="F47" s="5" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G47" s="4">
@@ -2978,11 +3151,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L47" s="6">
+        <v>45530</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="4">
-        <v>4145</v>
+        <v>3861</v>
       </c>
       <c r="B48" s="5" t="inlineStr">
         <is>
@@ -2996,17 +3172,17 @@
       </c>
       <c r="D48" s="5" t="inlineStr">
         <is>
-          <t>56011</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>CALCI</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="F48" s="5" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G48" s="4">
@@ -3031,11 +3207,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L48" s="6">
+        <v>45531</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="4">
-        <v>4146</v>
+        <v>3865</v>
       </c>
       <c r="B49" s="5" t="inlineStr">
         <is>
@@ -3084,11 +3263,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L49" s="6">
+        <v>45531</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="4">
-        <v>4147</v>
+        <v>3873</v>
       </c>
       <c r="B50" s="5" t="inlineStr">
         <is>
@@ -3102,17 +3284,17 @@
       </c>
       <c r="D50" s="5" t="inlineStr">
         <is>
-          <t>19136</t>
+          <t>56011</t>
         </is>
       </c>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>LA SPEZIA</t>
+          <t>CALCI</t>
         </is>
       </c>
       <c r="F50" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="G50" s="4">
@@ -3137,11 +3319,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L50" s="6">
+        <v>45532</v>
       </c>
     </row>
     <row outlineLevel="0" r="51">
       <c r="A51" s="4">
-        <v>4155</v>
+        <v>3874</v>
       </c>
       <c r="B51" s="5" t="inlineStr">
         <is>
@@ -3155,7 +3340,7 @@
       </c>
       <c r="D51" s="5" t="inlineStr">
         <is>
-          <t>19126</t>
+          <t>19125</t>
         </is>
       </c>
       <c r="E51" s="5" t="inlineStr">
@@ -3190,11 +3375,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L51" s="6">
+        <v>45532</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="4">
-        <v>4156</v>
+        <v>3875</v>
       </c>
       <c r="B52" s="5" t="inlineStr">
         <is>
@@ -3208,17 +3396,17 @@
       </c>
       <c r="D52" s="5" t="inlineStr">
         <is>
-          <t>55045</t>
+          <t>54100</t>
         </is>
       </c>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>PIETRASANTA</t>
+          <t>MASSA</t>
         </is>
       </c>
       <c r="F52" s="5" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="G52" s="4">
@@ -3243,11 +3431,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L52" s="6">
+        <v>45532</v>
       </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="4">
-        <v>4157</v>
+        <v>3884</v>
       </c>
       <c r="B53" s="5" t="inlineStr">
         <is>
@@ -3261,46 +3452,49 @@
       </c>
       <c r="D53" s="5" t="inlineStr">
         <is>
-          <t>54100</t>
+          <t>19100</t>
         </is>
       </c>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>MASSA</t>
+          <t>LA SPEZIA</t>
         </is>
       </c>
       <c r="F53" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>19037</t>
+          <t/>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>SANTO STEFANO DI MAGRA</t>
+          <t/>
         </is>
       </c>
       <c r="J53" s="5" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t/>
         </is>
       </c>
       <c r="K53" s="5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L53" s="6">
+        <v>45532</v>
       </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="4">
-        <v>4174</v>
+        <v>3885</v>
       </c>
       <c r="B54" s="5" t="inlineStr">
         <is>
@@ -3314,17 +3508,17 @@
       </c>
       <c r="D54" s="5" t="inlineStr">
         <is>
-          <t>56011</t>
+          <t>19038</t>
         </is>
       </c>
       <c r="E54" s="5" t="inlineStr">
         <is>
-          <t>CALCI</t>
+          <t>SARZANA</t>
         </is>
       </c>
       <c r="F54" s="5" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="G54" s="4">
@@ -3349,11 +3543,14 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="L54" s="6">
+        <v>45532</v>
       </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="4">
-        <v>4177</v>
+        <v>3892</v>
       </c>
       <c r="B55" s="5" t="inlineStr">
         <is>
@@ -3367,17 +3564,17 @@
       </c>
       <c r="D55" s="5" t="inlineStr">
         <is>
-          <t>54100</t>
+          <t>17026</t>
         </is>
       </c>
       <c r="E55" s="5" t="inlineStr">
         <is>
-          <t>MASSA</t>
+          <t>NOLI</t>
         </is>
       </c>
       <c r="F55" s="5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="G55" s="4">
@@ -3403,2443 +3600,8 @@
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row outlineLevel="0" r="56">
-      <c r="A56" s="4">
-        <v>4195</v>
-      </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C56" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D56" s="5" t="inlineStr">
-        <is>
-          <t>55100</t>
-        </is>
-      </c>
-      <c r="E56" s="5" t="inlineStr">
-        <is>
-          <t>LUCCA</t>
-        </is>
-      </c>
-      <c r="F56" s="5" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I56" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J56" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K56" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="57">
-      <c r="A57" s="4">
-        <v>4196</v>
-      </c>
-      <c r="B57" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C57" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D57" s="5" t="inlineStr">
-        <is>
-          <t>51034</t>
-        </is>
-      </c>
-      <c r="E57" s="5" t="inlineStr">
-        <is>
-          <t>SERRAVALLE PISTOIESE</t>
-        </is>
-      </c>
-      <c r="F57" s="5" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I57" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J57" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K57" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="58">
-      <c r="A58" s="4">
-        <v>4197</v>
-      </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D58" s="5" t="inlineStr">
-        <is>
-          <t>54028</t>
-        </is>
-      </c>
-      <c r="E58" s="5" t="inlineStr">
-        <is>
-          <t>VILLAFRANCA IN LUNIGIANA</t>
-        </is>
-      </c>
-      <c r="F58" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J58" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K58" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="59">
-      <c r="A59" s="4">
-        <v>4211</v>
-      </c>
-      <c r="B59" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D59" s="5" t="inlineStr">
-        <is>
-          <t>19038</t>
-        </is>
-      </c>
-      <c r="E59" s="5" t="inlineStr">
-        <is>
-          <t>SARZANA</t>
-        </is>
-      </c>
-      <c r="F59" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I59" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J59" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K59" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="4">
-        <v>4212</v>
-      </c>
-      <c r="B60" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C60" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D60" s="5" t="inlineStr">
-        <is>
-          <t>56011</t>
-        </is>
-      </c>
-      <c r="E60" s="5" t="inlineStr">
-        <is>
-          <t>CALCI</t>
-        </is>
-      </c>
-      <c r="F60" s="5" t="inlineStr">
-        <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I60" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J60" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K60" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="61">
-      <c r="A61" s="4">
-        <v>4213</v>
-      </c>
-      <c r="B61" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C61" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D61" s="5" t="inlineStr">
-        <is>
-          <t>51028</t>
-        </is>
-      </c>
-      <c r="E61" s="5" t="inlineStr">
-        <is>
-          <t>SAN MARCELLO PISTOIESE</t>
-        </is>
-      </c>
-      <c r="F61" s="5" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I61" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J61" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K61" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="62">
-      <c r="A62" s="4">
-        <v>4214</v>
-      </c>
-      <c r="B62" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C62" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D62" s="5" t="inlineStr">
-        <is>
-          <t>17014</t>
-        </is>
-      </c>
-      <c r="E62" s="5" t="inlineStr">
-        <is>
-          <t>CAIRO MONTENOTTE</t>
-        </is>
-      </c>
-      <c r="F62" s="5" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I62" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J62" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K62" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="63">
-      <c r="A63" s="4">
-        <v>4215</v>
-      </c>
-      <c r="B63" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C63" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D63" s="5" t="inlineStr">
-        <is>
-          <t>19100</t>
-        </is>
-      </c>
-      <c r="E63" s="5" t="inlineStr">
-        <is>
-          <t>LA SPEZIA</t>
-        </is>
-      </c>
-      <c r="F63" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I63" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J63" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K63" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="64">
-      <c r="A64" s="4">
-        <v>4216</v>
-      </c>
-      <c r="B64" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C64" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D64" s="5" t="inlineStr">
-        <is>
-          <t>19136</t>
-        </is>
-      </c>
-      <c r="E64" s="5" t="inlineStr">
-        <is>
-          <t>LA SPEZIA</t>
-        </is>
-      </c>
-      <c r="F64" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I64" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J64" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K64" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="65">
-      <c r="A65" s="4">
-        <v>4217</v>
-      </c>
-      <c r="B65" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C65" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D65" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="E65" s="5" t="inlineStr">
-        <is>
-          <t>MASSA</t>
-        </is>
-      </c>
-      <c r="F65" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I65" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J65" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K65" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="66">
-      <c r="A66" s="4">
-        <v>4219</v>
-      </c>
-      <c r="B66" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C66" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D66" s="5" t="inlineStr">
-        <is>
-          <t>19020</t>
-        </is>
-      </c>
-      <c r="E66" s="5" t="inlineStr">
-        <is>
-          <t>RICCO' DEL GOLFO DI SPEZIA</t>
-        </is>
-      </c>
-      <c r="F66" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I66" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J66" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K66" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="4">
-        <v>4220</v>
-      </c>
-      <c r="B67" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D67" s="5" t="inlineStr">
-        <is>
-          <t>55047</t>
-        </is>
-      </c>
-      <c r="E67" s="5" t="inlineStr">
-        <is>
-          <t>SERAVEZZA</t>
-        </is>
-      </c>
-      <c r="F67" s="5" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I67" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J67" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K67" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="68">
-      <c r="A68" s="4">
-        <v>4229</v>
-      </c>
-      <c r="B68" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D68" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="E68" s="5" t="inlineStr">
-        <is>
-          <t>MASSA</t>
-        </is>
-      </c>
-      <c r="F68" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I68" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J68" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K68" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="69">
-      <c r="A69" s="4">
-        <v>4230</v>
-      </c>
-      <c r="B69" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D69" s="5" t="inlineStr">
-        <is>
-          <t>55047</t>
-        </is>
-      </c>
-      <c r="E69" s="5" t="inlineStr">
-        <is>
-          <t>SERAVEZZA</t>
-        </is>
-      </c>
-      <c r="F69" s="5" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I69" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J69" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K69" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="70">
-      <c r="A70" s="4">
-        <v>4231</v>
-      </c>
-      <c r="B70" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C70" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D70" s="5" t="inlineStr">
-        <is>
-          <t>19038</t>
-        </is>
-      </c>
-      <c r="E70" s="5" t="inlineStr">
-        <is>
-          <t>SARZANA</t>
-        </is>
-      </c>
-      <c r="F70" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I70" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J70" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K70" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="71">
-      <c r="A71" s="4">
-        <v>4256</v>
-      </c>
-      <c r="B71" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C71" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D71" s="5" t="inlineStr">
-        <is>
-          <t>19038</t>
-        </is>
-      </c>
-      <c r="E71" s="5" t="inlineStr">
-        <is>
-          <t>SARZANA</t>
-        </is>
-      </c>
-      <c r="F71" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I71" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J71" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K71" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="72">
-      <c r="A72" s="4">
-        <v>4257</v>
-      </c>
-      <c r="B72" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C72" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D72" s="5" t="inlineStr">
-        <is>
-          <t>54033</t>
-        </is>
-      </c>
-      <c r="E72" s="5" t="inlineStr">
-        <is>
-          <t>CARRARA</t>
-        </is>
-      </c>
-      <c r="F72" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I72" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J72" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K72" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="73">
-      <c r="A73" s="4">
-        <v>4258</v>
-      </c>
-      <c r="B73" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C73" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D73" s="5" t="inlineStr">
-        <is>
-          <t>19126</t>
-        </is>
-      </c>
-      <c r="E73" s="5" t="inlineStr">
-        <is>
-          <t>LA SPEZIA</t>
-        </is>
-      </c>
-      <c r="F73" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I73" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J73" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K73" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="74">
-      <c r="A74" s="4">
-        <v>4259</v>
-      </c>
-      <c r="B74" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C74" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D74" s="5" t="inlineStr">
-        <is>
-          <t>54033</t>
-        </is>
-      </c>
-      <c r="E74" s="5" t="inlineStr">
-        <is>
-          <t>CARRARA</t>
-        </is>
-      </c>
-      <c r="F74" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G74" s="4">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I74" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J74" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K74" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="75">
-      <c r="A75" s="4">
-        <v>4260</v>
-      </c>
-      <c r="B75" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C75" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D75" s="5" t="inlineStr">
-        <is>
-          <t>55047</t>
-        </is>
-      </c>
-      <c r="E75" s="5" t="inlineStr">
-        <is>
-          <t>SERAVEZZA</t>
-        </is>
-      </c>
-      <c r="F75" s="5" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I75" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J75" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K75" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="76">
-      <c r="A76" s="4">
-        <v>4262</v>
-      </c>
-      <c r="B76" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C76" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D76" s="5" t="inlineStr">
-        <is>
-          <t>56011</t>
-        </is>
-      </c>
-      <c r="E76" s="5" t="inlineStr">
-        <is>
-          <t>CALCI</t>
-        </is>
-      </c>
-      <c r="F76" s="5" t="inlineStr">
-        <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I76" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J76" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K76" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="77">
-      <c r="A77" s="4">
-        <v>4263</v>
-      </c>
-      <c r="B77" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C77" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D77" s="5" t="inlineStr">
-        <is>
-          <t>19037</t>
-        </is>
-      </c>
-      <c r="E77" s="5" t="inlineStr">
-        <is>
-          <t>SANTO STEFANO DI MAGRA</t>
-        </is>
-      </c>
-      <c r="F77" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-      <c r="H77" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I77" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J77" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K77" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="78">
-      <c r="A78" s="4">
-        <v>4271</v>
-      </c>
-      <c r="B78" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C78" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D78" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="E78" s="5" t="inlineStr">
-        <is>
-          <t>MASSA</t>
-        </is>
-      </c>
-      <c r="F78" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G78" s="4">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I78" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J78" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K78" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="79">
-      <c r="A79" s="4">
-        <v>4284</v>
-      </c>
-      <c r="B79" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C79" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D79" s="5" t="inlineStr">
-        <is>
-          <t>19033</t>
-        </is>
-      </c>
-      <c r="E79" s="5" t="inlineStr">
-        <is>
-          <t>CASTELNUOVO MAGRA</t>
-        </is>
-      </c>
-      <c r="F79" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G79" s="4">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I79" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J79" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K79" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="80">
-      <c r="A80" s="4">
-        <v>4285</v>
-      </c>
-      <c r="B80" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C80" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D80" s="5" t="inlineStr">
-        <is>
-          <t>54028</t>
-        </is>
-      </c>
-      <c r="E80" s="5" t="inlineStr">
-        <is>
-          <t>VILLAFRANCA IN LUNIGIANA</t>
-        </is>
-      </c>
-      <c r="F80" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G80" s="4">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I80" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J80" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K80" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="81">
-      <c r="A81" s="4">
-        <v>4313</v>
-      </c>
-      <c r="B81" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C81" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D81" s="5" t="inlineStr">
-        <is>
-          <t>54013</t>
-        </is>
-      </c>
-      <c r="E81" s="5" t="inlineStr">
-        <is>
-          <t>FIVIZZANO</t>
-        </is>
-      </c>
-      <c r="F81" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G81" s="4">
-        <v>1</v>
-      </c>
-      <c r="H81" s="5" t="inlineStr">
-        <is>
-          <t>54013</t>
-        </is>
-      </c>
-      <c r="I81" s="5" t="inlineStr">
-        <is>
-          <t>FIVIZZANO</t>
-        </is>
-      </c>
-      <c r="J81" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K81" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="82">
-      <c r="A82" s="4">
-        <v>4314</v>
-      </c>
-      <c r="B82" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C82" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D82" s="5" t="inlineStr">
-        <is>
-          <t>19125</t>
-        </is>
-      </c>
-      <c r="E82" s="5" t="inlineStr">
-        <is>
-          <t>LA SPEZIA</t>
-        </is>
-      </c>
-      <c r="F82" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I82" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J82" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K82" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="83">
-      <c r="A83" s="4">
-        <v>4315</v>
-      </c>
-      <c r="B83" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C83" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D83" s="5" t="inlineStr">
-        <is>
-          <t>54033</t>
-        </is>
-      </c>
-      <c r="E83" s="5" t="inlineStr">
-        <is>
-          <t>CARRARA</t>
-        </is>
-      </c>
-      <c r="F83" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I83" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J83" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K83" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="84">
-      <c r="A84" s="4">
-        <v>4316</v>
-      </c>
-      <c r="B84" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C84" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D84" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="E84" s="5" t="inlineStr">
-        <is>
-          <t>MASSA</t>
-        </is>
-      </c>
-      <c r="F84" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G84" s="4">
-        <v>0</v>
-      </c>
-      <c r="H84" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I84" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J84" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K84" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="85">
-      <c r="A85" s="4">
-        <v>4317</v>
-      </c>
-      <c r="B85" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C85" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D85" s="5" t="inlineStr">
-        <is>
-          <t>51028</t>
-        </is>
-      </c>
-      <c r="E85" s="5" t="inlineStr">
-        <is>
-          <t>SAN MARCELLO PISTOIESE</t>
-        </is>
-      </c>
-      <c r="F85" s="5" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="G85" s="4">
-        <v>0</v>
-      </c>
-      <c r="H85" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I85" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J85" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K85" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="86">
-      <c r="A86" s="4">
-        <v>4318</v>
-      </c>
-      <c r="B86" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C86" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D86" s="5" t="inlineStr">
-        <is>
-          <t>56011</t>
-        </is>
-      </c>
-      <c r="E86" s="5" t="inlineStr">
-        <is>
-          <t>CALCI</t>
-        </is>
-      </c>
-      <c r="F86" s="5" t="inlineStr">
-        <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="G86" s="4">
-        <v>0</v>
-      </c>
-      <c r="H86" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I86" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J86" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K86" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="87">
-      <c r="A87" s="4">
-        <v>4319</v>
-      </c>
-      <c r="B87" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C87" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D87" s="5" t="inlineStr">
-        <is>
-          <t>19038</t>
-        </is>
-      </c>
-      <c r="E87" s="5" t="inlineStr">
-        <is>
-          <t>SARZANA</t>
-        </is>
-      </c>
-      <c r="F87" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G87" s="4">
-        <v>0</v>
-      </c>
-      <c r="H87" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I87" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J87" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K87" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="88">
-      <c r="A88" s="4">
-        <v>4320</v>
-      </c>
-      <c r="B88" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C88" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D88" s="5" t="inlineStr">
-        <is>
-          <t>19038</t>
-        </is>
-      </c>
-      <c r="E88" s="5" t="inlineStr">
-        <is>
-          <t>SARZANA</t>
-        </is>
-      </c>
-      <c r="F88" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G88" s="4">
-        <v>0</v>
-      </c>
-      <c r="H88" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I88" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J88" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K88" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="89">
-      <c r="A89" s="4">
-        <v>4321</v>
-      </c>
-      <c r="B89" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C89" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D89" s="5" t="inlineStr">
-        <is>
-          <t>00122</t>
-        </is>
-      </c>
-      <c r="E89" s="5" t="inlineStr">
-        <is>
-          <t>ROMA</t>
-        </is>
-      </c>
-      <c r="F89" s="5" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="G89" s="4">
-        <v>0</v>
-      </c>
-      <c r="H89" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I89" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J89" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K89" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="90">
-      <c r="A90" s="4">
-        <v>4341</v>
-      </c>
-      <c r="B90" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C90" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D90" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="E90" s="5" t="inlineStr">
-        <is>
-          <t>MASSA</t>
-        </is>
-      </c>
-      <c r="F90" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="H90" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="I90" s="5" t="inlineStr">
-        <is>
-          <t>MASSA</t>
-        </is>
-      </c>
-      <c r="J90" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="K90" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="91">
-      <c r="A91" s="4">
-        <v>4381</v>
-      </c>
-      <c r="B91" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C91" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D91" s="5" t="inlineStr">
-        <is>
-          <t>54033</t>
-        </is>
-      </c>
-      <c r="E91" s="5" t="inlineStr">
-        <is>
-          <t>CARRARA</t>
-        </is>
-      </c>
-      <c r="F91" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G91" s="4">
-        <v>0</v>
-      </c>
-      <c r="H91" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I91" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J91" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K91" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="92">
-      <c r="A92" s="4">
-        <v>4382</v>
-      </c>
-      <c r="B92" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C92" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D92" s="5" t="inlineStr">
-        <is>
-          <t>55047</t>
-        </is>
-      </c>
-      <c r="E92" s="5" t="inlineStr">
-        <is>
-          <t>SERAVEZZA</t>
-        </is>
-      </c>
-      <c r="F92" s="5" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
-      </c>
-      <c r="H92" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I92" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J92" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K92" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="93">
-      <c r="A93" s="4">
-        <v>4383</v>
-      </c>
-      <c r="B93" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C93" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D93" s="5" t="inlineStr">
-        <is>
-          <t>55047</t>
-        </is>
-      </c>
-      <c r="E93" s="5" t="inlineStr">
-        <is>
-          <t>SERAVEZZA</t>
-        </is>
-      </c>
-      <c r="F93" s="5" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="G93" s="4">
-        <v>0</v>
-      </c>
-      <c r="H93" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I93" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J93" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K93" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="94">
-      <c r="A94" s="4">
-        <v>4384</v>
-      </c>
-      <c r="B94" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C94" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D94" s="5" t="inlineStr">
-        <is>
-          <t>54100</t>
-        </is>
-      </c>
-      <c r="E94" s="5" t="inlineStr">
-        <is>
-          <t>MARINA DI MASSA</t>
-        </is>
-      </c>
-      <c r="F94" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G94" s="4">
-        <v>0</v>
-      </c>
-      <c r="H94" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I94" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J94" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K94" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="95">
-      <c r="A95" s="4">
-        <v>4385</v>
-      </c>
-      <c r="B95" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C95" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D95" s="5" t="inlineStr">
-        <is>
-          <t>54033</t>
-        </is>
-      </c>
-      <c r="E95" s="5" t="inlineStr">
-        <is>
-          <t>CARRARA</t>
-        </is>
-      </c>
-      <c r="F95" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G95" s="4">
-        <v>0</v>
-      </c>
-      <c r="H95" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I95" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J95" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K95" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="96">
-      <c r="A96" s="4">
-        <v>4386</v>
-      </c>
-      <c r="B96" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C96" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D96" s="5" t="inlineStr">
-        <is>
-          <t>17026</t>
-        </is>
-      </c>
-      <c r="E96" s="5" t="inlineStr">
-        <is>
-          <t>NOLI</t>
-        </is>
-      </c>
-      <c r="F96" s="5" t="inlineStr">
-        <is>
-          <t>SV</t>
-        </is>
-      </c>
-      <c r="G96" s="4">
-        <v>0</v>
-      </c>
-      <c r="H96" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I96" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J96" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K96" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="97">
-      <c r="A97" s="4">
-        <v>4395</v>
-      </c>
-      <c r="B97" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C97" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D97" s="5" t="inlineStr">
-        <is>
-          <t>04011</t>
-        </is>
-      </c>
-      <c r="E97" s="5" t="inlineStr">
-        <is>
-          <t>APRILIA</t>
-        </is>
-      </c>
-      <c r="F97" s="5" t="inlineStr">
-        <is>
-          <t>LT</t>
-        </is>
-      </c>
-      <c r="G97" s="4">
-        <v>0</v>
-      </c>
-      <c r="H97" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I97" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J97" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K97" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="98">
-      <c r="A98" s="4">
-        <v>4396</v>
-      </c>
-      <c r="B98" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C98" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D98" s="5" t="inlineStr">
-        <is>
-          <t>54013</t>
-        </is>
-      </c>
-      <c r="E98" s="5" t="inlineStr">
-        <is>
-          <t>FIVIZZANO</t>
-        </is>
-      </c>
-      <c r="F98" s="5" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="G98" s="4">
-        <v>0</v>
-      </c>
-      <c r="H98" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I98" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J98" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K98" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="99">
-      <c r="A99" s="4">
-        <v>4445</v>
-      </c>
-      <c r="B99" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C99" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D99" s="5" t="inlineStr">
-        <is>
-          <t>00075</t>
-        </is>
-      </c>
-      <c r="E99" s="5" t="inlineStr">
-        <is>
-          <t>LANUVIO</t>
-        </is>
-      </c>
-      <c r="F99" s="5" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="G99" s="4">
-        <v>0</v>
-      </c>
-      <c r="H99" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I99" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J99" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K99" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="100">
-      <c r="A100" s="4">
-        <v>4449</v>
-      </c>
-      <c r="B100" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C100" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D100" s="5" t="inlineStr">
-        <is>
-          <t>19021</t>
-        </is>
-      </c>
-      <c r="E100" s="5" t="inlineStr">
-        <is>
-          <t>ARCOLA</t>
-        </is>
-      </c>
-      <c r="F100" s="5" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="G100" s="4">
-        <v>0</v>
-      </c>
-      <c r="H100" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I100" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J100" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K100" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="101">
-      <c r="A101" s="4">
-        <v>4459</v>
-      </c>
-      <c r="B101" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C101" s="5" t="inlineStr">
-        <is>
-          <t>903</t>
-        </is>
-      </c>
-      <c r="D101" s="5" t="inlineStr">
-        <is>
-          <t>00075</t>
-        </is>
-      </c>
-      <c r="E101" s="5" t="inlineStr">
-        <is>
-          <t>LANUVIO</t>
-        </is>
-      </c>
-      <c r="F101" s="5" t="inlineStr">
-        <is>
-          <t>RM</t>
-        </is>
-      </c>
-      <c r="G101" s="4">
-        <v>0</v>
-      </c>
-      <c r="H101" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I101" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J101" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K101" s="5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L55" s="6">
+        <v>45533</v>
       </c>
     </row>
   </sheetData>
